--- a/plan/2.테이블/통합 테이블.xlsx
+++ b/plan/2.테이블/통합 테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14780" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="14060" yWindow="0" windowWidth="11540" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="162">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -661,6 +661,10 @@
   </si>
   <si>
     <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +672,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -706,8 +710,26 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +739,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,13 +773,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,10 +803,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="표준 3" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1091,11 +1127,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2086073968"/>
-        <c:axId val="-2086329536"/>
+        <c:axId val="2103654480"/>
+        <c:axId val="2144999648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086073968"/>
+        <c:axId val="2103654480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1173,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086329536"/>
+        <c:crossAx val="2144999648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1145,7 +1181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086329536"/>
+        <c:axId val="2144999648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,6 +1201,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1195,7 +1232,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086073968"/>
+        <c:crossAx val="2103654480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,11 +1559,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2103725840"/>
-        <c:axId val="-2105112432"/>
+        <c:axId val="-2134576416"/>
+        <c:axId val="-2138809024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103725840"/>
+        <c:axId val="-2134576416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,7 +1605,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105112432"/>
+        <c:crossAx val="-2138809024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1576,7 +1613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105112432"/>
+        <c:axId val="-2138809024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +1664,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103725840"/>
+        <c:crossAx val="-2134576416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2792,13 +2829,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>250449</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>160047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>59949</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>160047</xdr:rowOff>
@@ -2824,13 +2861,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>253999</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>75927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>46429</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>33321</xdr:rowOff>
@@ -4091,1463 +4128,3066 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I51"/>
+  <dimension ref="A2:Q113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>1002</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="J3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1008</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I4" s="7">
         <v>3</v>
       </c>
-      <c r="I3" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="J4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
-        <v>1008</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
       <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <v>1020</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3</v>
       </c>
       <c r="E5" s="7">
         <v>3</v>
       </c>
       <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1040</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1070</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1112</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1168</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1240</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1330</v>
+      </c>
+      <c r="E11" s="7">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1440</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="G12" s="7">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1572</v>
+      </c>
+      <c r="E13" s="7">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1728</v>
+      </c>
+      <c r="E14" s="7">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1910</v>
+      </c>
+      <c r="E15" s="7">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4</v>
+      </c>
+      <c r="J15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2120</v>
+      </c>
+      <c r="E16" s="7">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2360</v>
+      </c>
+      <c r="E17" s="7">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4</v>
+      </c>
+      <c r="J17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2632</v>
+      </c>
+      <c r="E18" s="7">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2938</v>
+      </c>
+      <c r="E19" s="7">
+        <v>17</v>
+      </c>
+      <c r="F19" s="7">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4</v>
+      </c>
+      <c r="J19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3280</v>
+      </c>
+      <c r="E20" s="7">
+        <v>18</v>
+      </c>
+      <c r="F20" s="7">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3660</v>
+      </c>
+      <c r="E21" s="7">
+        <v>19</v>
+      </c>
+      <c r="F21" s="7">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4</v>
+      </c>
+      <c r="J21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4080</v>
+      </c>
+      <c r="E22" s="7">
+        <v>20</v>
+      </c>
+      <c r="F22" s="7">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4542</v>
+      </c>
+      <c r="E23" s="7">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+      <c r="J23" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5048</v>
+      </c>
+      <c r="E24" s="7">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5</v>
+      </c>
+      <c r="J24" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5600</v>
+      </c>
+      <c r="E25" s="7">
+        <v>23</v>
+      </c>
+      <c r="F25" s="7">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5</v>
+      </c>
+      <c r="J25" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6200</v>
+      </c>
+      <c r="E26" s="7">
+        <v>24</v>
+      </c>
+      <c r="F26" s="7">
+        <v>25</v>
+      </c>
+      <c r="G26" s="7">
+        <v>4</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5</v>
+      </c>
+      <c r="J26" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7">
+        <v>6850</v>
+      </c>
+      <c r="E27" s="7">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7">
+        <v>4</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <v>5</v>
+      </c>
+      <c r="J27" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>27</v>
+      </c>
+      <c r="D28" s="7">
+        <v>7552</v>
+      </c>
+      <c r="E28" s="7">
+        <v>26</v>
+      </c>
+      <c r="F28" s="7">
+        <v>25</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5</v>
+      </c>
+      <c r="J28" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7">
+        <v>8308</v>
+      </c>
+      <c r="E29" s="7">
+        <v>27</v>
+      </c>
+      <c r="F29" s="7">
+        <v>25</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5</v>
+      </c>
+      <c r="J29" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9120</v>
+      </c>
+      <c r="E30" s="7">
+        <v>28</v>
+      </c>
+      <c r="F30" s="7">
+        <v>25</v>
+      </c>
+      <c r="G30" s="7">
+        <v>4</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5</v>
+      </c>
+      <c r="J30" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>30</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E31" s="7">
+        <v>29</v>
+      </c>
+      <c r="F31" s="7">
+        <v>25</v>
+      </c>
+      <c r="G31" s="7">
+        <v>4</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5</v>
+      </c>
+      <c r="J31" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10920</v>
+      </c>
+      <c r="E32" s="7">
+        <v>30</v>
+      </c>
+      <c r="F32" s="7">
+        <v>40</v>
+      </c>
+      <c r="G32" s="7">
+        <v>5</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>6</v>
+      </c>
+      <c r="J32" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>32</v>
+      </c>
+      <c r="D33" s="7">
+        <v>11912</v>
+      </c>
+      <c r="E33" s="7">
+        <v>31</v>
+      </c>
+      <c r="F33" s="7">
+        <v>40</v>
+      </c>
+      <c r="G33" s="7">
+        <v>5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>4</v>
+      </c>
+      <c r="I33" s="7">
+        <v>6</v>
+      </c>
+      <c r="J33" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>33</v>
+      </c>
+      <c r="D34" s="7">
+        <v>12968</v>
+      </c>
+      <c r="E34" s="7">
+        <v>32</v>
+      </c>
+      <c r="F34" s="7">
+        <v>40</v>
+      </c>
+      <c r="G34" s="7">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4</v>
+      </c>
+      <c r="I34" s="7">
+        <v>6</v>
+      </c>
+      <c r="J34" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>34</v>
+      </c>
+      <c r="D35" s="7">
+        <v>14090</v>
+      </c>
+      <c r="E35" s="7">
+        <v>33</v>
+      </c>
+      <c r="F35" s="7">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7">
+        <v>5</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>6</v>
+      </c>
+      <c r="J35" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>35</v>
+      </c>
+      <c r="D36" s="7">
+        <v>15280</v>
+      </c>
+      <c r="E36" s="7">
+        <v>34</v>
+      </c>
+      <c r="F36" s="7">
+        <v>40</v>
+      </c>
+      <c r="G36" s="7">
+        <v>5</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4</v>
+      </c>
+      <c r="I36" s="7">
+        <v>6</v>
+      </c>
+      <c r="J36" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>36</v>
+      </c>
+      <c r="D37" s="7">
+        <v>16540</v>
+      </c>
+      <c r="E37" s="7">
+        <v>35</v>
+      </c>
+      <c r="F37" s="7">
+        <v>40</v>
+      </c>
+      <c r="G37" s="7">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>6</v>
+      </c>
+      <c r="J37" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>37</v>
+      </c>
+      <c r="D38" s="7">
+        <v>17872</v>
+      </c>
+      <c r="E38" s="7">
+        <v>36</v>
+      </c>
+      <c r="F38" s="7">
+        <v>40</v>
+      </c>
+      <c r="G38" s="7">
+        <v>5</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7">
+        <v>6</v>
+      </c>
+      <c r="J38" s="7">
+        <v>30</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>38</v>
+      </c>
+      <c r="D39" s="7">
+        <v>19278</v>
+      </c>
+      <c r="E39" s="7">
+        <v>37</v>
+      </c>
+      <c r="F39" s="7">
+        <v>40</v>
+      </c>
+      <c r="G39" s="7">
+        <v>5</v>
+      </c>
+      <c r="H39" s="7">
+        <v>4</v>
+      </c>
+      <c r="I39" s="7">
+        <v>6</v>
+      </c>
+      <c r="J39" s="7">
+        <v>30</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>39</v>
+      </c>
+      <c r="D40" s="7">
+        <v>20760</v>
+      </c>
+      <c r="E40" s="7">
+        <v>38</v>
+      </c>
+      <c r="F40" s="7">
+        <v>40</v>
+      </c>
+      <c r="G40" s="7">
+        <v>5</v>
+      </c>
+      <c r="H40" s="7">
+        <v>4</v>
+      </c>
+      <c r="I40" s="7">
+        <v>6</v>
+      </c>
+      <c r="J40" s="7">
+        <v>30</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>40</v>
+      </c>
+      <c r="D41" s="7">
+        <v>22320</v>
+      </c>
+      <c r="E41" s="7">
+        <v>39</v>
+      </c>
+      <c r="F41" s="7">
+        <v>40</v>
+      </c>
+      <c r="G41" s="7">
+        <v>5</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4</v>
+      </c>
+      <c r="I41" s="7">
+        <v>6</v>
+      </c>
+      <c r="J41" s="7">
+        <v>30</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>41</v>
+      </c>
+      <c r="D42" s="7">
+        <v>23960</v>
+      </c>
+      <c r="E42" s="7">
+        <v>40</v>
+      </c>
+      <c r="F42" s="7">
+        <v>60</v>
+      </c>
+      <c r="G42" s="7">
+        <v>6</v>
+      </c>
+      <c r="H42" s="7">
+        <v>5</v>
+      </c>
+      <c r="I42" s="7">
+        <v>7</v>
+      </c>
+      <c r="J42" s="7">
+        <v>50</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>42</v>
+      </c>
+      <c r="D43" s="7">
+        <v>25682</v>
+      </c>
+      <c r="E43" s="7">
+        <v>41</v>
+      </c>
+      <c r="F43" s="7">
+        <v>60</v>
+      </c>
+      <c r="G43" s="7">
+        <v>6</v>
+      </c>
+      <c r="H43" s="7">
+        <v>5</v>
+      </c>
+      <c r="I43" s="7">
+        <v>7</v>
+      </c>
+      <c r="J43" s="7">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>43</v>
+      </c>
+      <c r="D44" s="7">
+        <v>27488</v>
+      </c>
+      <c r="E44" s="7">
+        <v>42</v>
+      </c>
+      <c r="F44" s="7">
+        <v>60</v>
+      </c>
+      <c r="G44" s="7">
+        <v>6</v>
+      </c>
+      <c r="H44" s="7">
+        <v>5</v>
+      </c>
+      <c r="I44" s="7">
+        <v>7</v>
+      </c>
+      <c r="J44" s="7">
+        <v>50</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>44</v>
+      </c>
+      <c r="D45" s="7">
+        <v>29380</v>
+      </c>
+      <c r="E45" s="7">
+        <v>43</v>
+      </c>
+      <c r="F45" s="7">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7">
+        <v>6</v>
+      </c>
+      <c r="H45" s="7">
+        <v>5</v>
+      </c>
+      <c r="I45" s="7">
+        <v>7</v>
+      </c>
+      <c r="J45" s="7">
+        <v>50</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45</v>
+      </c>
+      <c r="D46" s="7">
+        <v>31360</v>
+      </c>
+      <c r="E46" s="7">
+        <v>44</v>
+      </c>
+      <c r="F46" s="7">
+        <v>60</v>
+      </c>
+      <c r="G46" s="7">
+        <v>6</v>
+      </c>
+      <c r="H46" s="7">
+        <v>5</v>
+      </c>
+      <c r="I46" s="7">
+        <v>7</v>
+      </c>
+      <c r="J46" s="7">
+        <v>50</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>46</v>
+      </c>
+      <c r="D47" s="7">
+        <v>33430</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45</v>
+      </c>
+      <c r="F47" s="7">
+        <v>60</v>
+      </c>
+      <c r="G47" s="7">
+        <v>6</v>
+      </c>
+      <c r="H47" s="7">
+        <v>5</v>
+      </c>
+      <c r="I47" s="7">
+        <v>7</v>
+      </c>
+      <c r="J47" s="7">
+        <v>50</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>47</v>
+      </c>
+      <c r="D48" s="7">
+        <v>35592</v>
+      </c>
+      <c r="E48" s="7">
+        <v>46</v>
+      </c>
+      <c r="F48" s="7">
+        <v>60</v>
+      </c>
+      <c r="G48" s="7">
+        <v>6</v>
+      </c>
+      <c r="H48" s="7">
+        <v>5</v>
+      </c>
+      <c r="I48" s="7">
+        <v>7</v>
+      </c>
+      <c r="J48" s="7">
+        <v>50</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>48</v>
+      </c>
+      <c r="D49" s="7">
+        <v>37848</v>
+      </c>
+      <c r="E49" s="7">
+        <v>47</v>
+      </c>
+      <c r="F49" s="7">
+        <v>60</v>
+      </c>
+      <c r="G49" s="7">
+        <v>6</v>
+      </c>
+      <c r="H49" s="7">
+        <v>5</v>
+      </c>
+      <c r="I49" s="7">
+        <v>7</v>
+      </c>
+      <c r="J49" s="7">
+        <v>50</v>
+      </c>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>49</v>
+      </c>
+      <c r="D50" s="7">
+        <v>40200</v>
+      </c>
+      <c r="E50" s="7">
+        <v>48</v>
+      </c>
+      <c r="F50" s="7">
+        <v>60</v>
+      </c>
+      <c r="G50" s="7">
+        <v>6</v>
+      </c>
+      <c r="H50" s="7">
+        <v>5</v>
+      </c>
+      <c r="I50" s="7">
+        <v>7</v>
+      </c>
+      <c r="J50" s="7">
+        <v>50</v>
+      </c>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>50</v>
+      </c>
+      <c r="D51" s="7">
+        <v>42650</v>
+      </c>
+      <c r="E51" s="7">
+        <v>49</v>
+      </c>
+      <c r="F51" s="7">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7">
+        <v>6</v>
+      </c>
+      <c r="H51" s="7">
+        <v>5</v>
+      </c>
+      <c r="I51" s="7">
+        <v>7</v>
+      </c>
+      <c r="J51" s="7">
+        <v>50</v>
+      </c>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="C52" s="7">
+        <v>2</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1002</v>
+      </c>
+      <c r="F52" s="10">
+        <v>3</v>
+      </c>
+      <c r="I52" s="10">
+        <f>G52/2</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>5</v>
+      </c>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1008</v>
+      </c>
+      <c r="F53" s="10">
+        <v>3</v>
+      </c>
+      <c r="I53" s="10">
+        <f t="shared" ref="I53:I100" si="0">G53/2</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>5</v>
+      </c>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
+        <v>4</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1020</v>
+      </c>
+      <c r="F54" s="10">
+        <v>3</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>5</v>
+      </c>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7">
+        <v>5</v>
+      </c>
+      <c r="D55" s="7">
         <v>1040</v>
       </c>
-      <c r="D6" s="7">
+      <c r="F55" s="10">
+        <v>3</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>5</v>
+      </c>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1070</v>
+      </c>
+      <c r="F56" s="10">
+        <v>3</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>5</v>
+      </c>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>7</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1112</v>
+      </c>
+      <c r="F57" s="10">
+        <v>3</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>5</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7">
+        <v>8</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1168</v>
+      </c>
+      <c r="F58" s="10">
+        <v>3</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>5</v>
+      </c>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
+        <v>9</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1240</v>
+      </c>
+      <c r="F59" s="10">
+        <v>3</v>
+      </c>
+      <c r="I59" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>5</v>
+      </c>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7">
+        <v>10</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1330</v>
+      </c>
+      <c r="F60" s="10">
+        <v>3</v>
+      </c>
+      <c r="I60" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>5</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7">
+        <v>11</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1440</v>
+      </c>
+      <c r="F61" s="10">
         <v>4</v>
       </c>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="I61" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>10</v>
+      </c>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="C62" s="7">
+        <v>12</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1572</v>
+      </c>
+      <c r="F62" s="10">
+        <v>4</v>
+      </c>
+      <c r="I62" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>10</v>
+      </c>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7">
+        <v>13</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1728</v>
+      </c>
+      <c r="F63" s="10">
+        <v>4</v>
+      </c>
+      <c r="I63" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>10</v>
+      </c>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1</v>
+      </c>
+      <c r="C64" s="7">
+        <v>14</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1910</v>
+      </c>
+      <c r="F64" s="10">
+        <v>4</v>
+      </c>
+      <c r="I64" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>10</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7">
+        <v>15</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2120</v>
+      </c>
+      <c r="F65" s="10">
+        <v>4</v>
+      </c>
+      <c r="I65" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>10</v>
+      </c>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7">
+        <v>16</v>
+      </c>
+      <c r="D66" s="7">
+        <v>2360</v>
+      </c>
+      <c r="F66" s="10">
+        <v>4</v>
+      </c>
+      <c r="I66" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>10</v>
+      </c>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1</v>
+      </c>
+      <c r="C67" s="7">
+        <v>17</v>
+      </c>
+      <c r="D67" s="7">
+        <v>2632</v>
+      </c>
+      <c r="F67" s="10">
+        <v>4</v>
+      </c>
+      <c r="I67" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>10</v>
+      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7">
+        <v>18</v>
+      </c>
+      <c r="D68" s="7">
+        <v>2938</v>
+      </c>
+      <c r="F68" s="10">
+        <v>4</v>
+      </c>
+      <c r="I68" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>10</v>
+      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7">
+        <v>1</v>
+      </c>
+      <c r="C69" s="7">
+        <v>19</v>
+      </c>
+      <c r="D69" s="7">
+        <v>3280</v>
+      </c>
+      <c r="F69" s="10">
+        <v>4</v>
+      </c>
+      <c r="I69" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>10</v>
+      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1</v>
+      </c>
+      <c r="C70" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="D70" s="7">
+        <v>3660</v>
+      </c>
+      <c r="F70" s="10">
+        <v>4</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>10</v>
+      </c>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C71" s="7">
+        <v>21</v>
+      </c>
+      <c r="D71" s="7">
+        <v>4080</v>
+      </c>
+      <c r="F71" s="10">
+        <v>5</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>20</v>
+      </c>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1</v>
+      </c>
+      <c r="C72" s="7">
+        <v>22</v>
+      </c>
+      <c r="D72" s="7">
+        <v>4542</v>
+      </c>
+      <c r="F72" s="10">
+        <v>5</v>
+      </c>
+      <c r="I72" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>20</v>
+      </c>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7">
+        <v>23</v>
+      </c>
+      <c r="D73" s="7">
+        <v>5048</v>
+      </c>
+      <c r="F73" s="10">
+        <v>5</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>20</v>
+      </c>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+      <c r="C74" s="7">
+        <v>24</v>
+      </c>
+      <c r="D74" s="7">
+        <v>5600</v>
+      </c>
+      <c r="F74" s="10">
+        <v>5</v>
+      </c>
+      <c r="I74" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>20</v>
+      </c>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1</v>
+      </c>
+      <c r="C75" s="7">
+        <v>25</v>
+      </c>
+      <c r="D75" s="7">
+        <v>6200</v>
+      </c>
+      <c r="F75" s="10">
+        <v>5</v>
+      </c>
+      <c r="I75" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="7">
+        <v>20</v>
+      </c>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>74</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1</v>
+      </c>
+      <c r="C76" s="7">
+        <v>26</v>
+      </c>
+      <c r="D76" s="7">
+        <v>6850</v>
+      </c>
+      <c r="F76" s="10">
+        <v>5</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>20</v>
+      </c>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7">
+        <v>27</v>
+      </c>
+      <c r="D77" s="7">
+        <v>7552</v>
+      </c>
+      <c r="F77" s="10">
+        <v>5</v>
+      </c>
+      <c r="I77" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>20</v>
+      </c>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>76</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1</v>
+      </c>
+      <c r="C78" s="7">
+        <v>28</v>
+      </c>
+      <c r="D78" s="7">
+        <v>8308</v>
+      </c>
+      <c r="F78" s="10">
+        <v>5</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>20</v>
+      </c>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7">
+        <v>29</v>
+      </c>
+      <c r="D79" s="7">
+        <v>9120</v>
+      </c>
+      <c r="F79" s="10">
+        <v>5</v>
+      </c>
+      <c r="I79" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <v>20</v>
+      </c>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>78</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1</v>
+      </c>
+      <c r="C80" s="7">
+        <v>30</v>
+      </c>
+      <c r="D80" s="7">
+        <v>9990</v>
+      </c>
+      <c r="F80" s="10">
+        <v>5</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>20</v>
+      </c>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7">
+        <v>1</v>
+      </c>
+      <c r="C81" s="7">
+        <v>31</v>
+      </c>
+      <c r="D81" s="7">
+        <v>10920</v>
+      </c>
+      <c r="F81" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
-        <v>1070</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="I81" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>30</v>
+      </c>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>80</v>
+      </c>
+      <c r="B82" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="C82" s="7">
+        <v>32</v>
+      </c>
+      <c r="D82" s="7">
+        <v>11912</v>
+      </c>
+      <c r="F82" s="10">
+        <v>6</v>
+      </c>
+      <c r="I82" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>30</v>
+      </c>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="7">
+      <c r="C83" s="7">
+        <v>33</v>
+      </c>
+      <c r="D83" s="7">
+        <v>12968</v>
+      </c>
+      <c r="F83" s="10">
+        <v>6</v>
+      </c>
+      <c r="I83" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <v>30</v>
+      </c>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>82</v>
+      </c>
+      <c r="B84" s="7">
+        <v>1</v>
+      </c>
+      <c r="C84" s="7">
+        <v>34</v>
+      </c>
+      <c r="D84" s="7">
+        <v>14090</v>
+      </c>
+      <c r="F84" s="10">
+        <v>6</v>
+      </c>
+      <c r="I84" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>30</v>
+      </c>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7">
+        <v>1</v>
+      </c>
+      <c r="C85" s="7">
+        <v>35</v>
+      </c>
+      <c r="D85" s="7">
+        <v>15280</v>
+      </c>
+      <c r="F85" s="10">
+        <v>6</v>
+      </c>
+      <c r="I85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>30</v>
+      </c>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>84</v>
+      </c>
+      <c r="B86" s="7">
+        <v>1</v>
+      </c>
+      <c r="C86" s="7">
+        <v>36</v>
+      </c>
+      <c r="D86" s="7">
+        <v>16540</v>
+      </c>
+      <c r="F86" s="10">
+        <v>6</v>
+      </c>
+      <c r="I86" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>30</v>
+      </c>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7">
+        <v>1</v>
+      </c>
+      <c r="C87" s="7">
+        <v>37</v>
+      </c>
+      <c r="D87" s="7">
+        <v>17872</v>
+      </c>
+      <c r="F87" s="10">
+        <v>6</v>
+      </c>
+      <c r="I87" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>30</v>
+      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>86</v>
+      </c>
+      <c r="B88" s="7">
+        <v>1</v>
+      </c>
+      <c r="C88" s="7">
+        <v>38</v>
+      </c>
+      <c r="D88" s="7">
+        <v>19278</v>
+      </c>
+      <c r="F88" s="10">
+        <v>6</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7">
+        <v>1</v>
+      </c>
+      <c r="C89" s="7">
+        <v>39</v>
+      </c>
+      <c r="D89" s="7">
+        <v>20760</v>
+      </c>
+      <c r="F89" s="10">
+        <v>6</v>
+      </c>
+      <c r="I89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>88</v>
+      </c>
+      <c r="B90" s="7">
+        <v>1</v>
+      </c>
+      <c r="C90" s="7">
+        <v>40</v>
+      </c>
+      <c r="D90" s="7">
+        <v>22320</v>
+      </c>
+      <c r="F90" s="10">
+        <v>6</v>
+      </c>
+      <c r="I90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7">
+        <v>1</v>
+      </c>
+      <c r="C91" s="7">
+        <v>41</v>
+      </c>
+      <c r="D91" s="7">
+        <v>23960</v>
+      </c>
+      <c r="F91" s="10">
         <v>7</v>
       </c>
-      <c r="C8" s="7">
-        <v>1112</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="I91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>90</v>
+      </c>
+      <c r="B92" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="C92" s="7">
+        <v>42</v>
+      </c>
+      <c r="D92" s="7">
+        <v>25682</v>
+      </c>
+      <c r="F92" s="10">
+        <v>7</v>
+      </c>
+      <c r="I92" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1168</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C93" s="7">
+        <v>43</v>
+      </c>
+      <c r="D93" s="7">
+        <v>27488</v>
+      </c>
+      <c r="F93" s="10">
         <v>7</v>
       </c>
-      <c r="E9" s="7">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="I93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>92</v>
+      </c>
+      <c r="B94" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="C94" s="7">
+        <v>44</v>
+      </c>
+      <c r="D94" s="7">
+        <v>29380</v>
+      </c>
+      <c r="F94" s="10">
+        <v>7</v>
+      </c>
+      <c r="I94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="7">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1240</v>
-      </c>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="C95" s="7">
+        <v>45</v>
+      </c>
+      <c r="D95" s="7">
+        <v>31360</v>
+      </c>
+      <c r="F95" s="10">
+        <v>7</v>
+      </c>
+      <c r="I95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>94</v>
+      </c>
+      <c r="B96" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="C96" s="7">
+        <v>46</v>
+      </c>
+      <c r="D96" s="7">
+        <v>33430</v>
+      </c>
+      <c r="F96" s="10">
+        <v>7</v>
+      </c>
+      <c r="I96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7">
         <v>1</v>
       </c>
-      <c r="B11" s="7">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1330</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="C97" s="7">
+        <v>47</v>
+      </c>
+      <c r="D97" s="7">
+        <v>35592</v>
+      </c>
+      <c r="F97" s="10">
+        <v>7</v>
+      </c>
+      <c r="I97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>96</v>
+      </c>
+      <c r="B98" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="C98" s="7">
+        <v>48</v>
+      </c>
+      <c r="D98" s="7">
+        <v>37848</v>
+      </c>
+      <c r="F98" s="10">
+        <v>7</v>
+      </c>
+      <c r="I98" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="7">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1440</v>
-      </c>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="C99" s="7">
+        <v>49</v>
+      </c>
+      <c r="D99" s="7">
+        <v>40200</v>
+      </c>
+      <c r="F99" s="10">
+        <v>7</v>
+      </c>
+      <c r="I99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>98</v>
+      </c>
+      <c r="B100" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1572</v>
-      </c>
-      <c r="D13" s="7">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4</v>
-      </c>
-      <c r="F13" s="7">
-        <v>3</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1728</v>
-      </c>
-      <c r="D14" s="7">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1910</v>
-      </c>
-      <c r="D15" s="7">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4</v>
-      </c>
-      <c r="I15" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2120</v>
-      </c>
-      <c r="D16" s="7">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>1</v>
-      </c>
-      <c r="B17" s="7">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2360</v>
-      </c>
-      <c r="D17" s="7">
-        <v>15</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7">
-        <v>3</v>
-      </c>
-      <c r="G17" s="7">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2632</v>
-      </c>
-      <c r="D18" s="7">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4</v>
-      </c>
-      <c r="F18" s="7">
-        <v>3</v>
-      </c>
-      <c r="G18" s="7">
-        <v>2</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2938</v>
-      </c>
-      <c r="D19" s="7">
-        <v>17</v>
-      </c>
-      <c r="E19" s="7">
-        <v>4</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3</v>
-      </c>
-      <c r="G19" s="7">
-        <v>2</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3280</v>
-      </c>
-      <c r="D20" s="7">
-        <v>18</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3</v>
-      </c>
-      <c r="G20" s="7">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3660</v>
-      </c>
-      <c r="D21" s="7">
-        <v>19</v>
-      </c>
-      <c r="E21" s="7">
-        <v>4</v>
-      </c>
-      <c r="F21" s="7">
-        <v>3</v>
-      </c>
-      <c r="G21" s="7">
-        <v>2</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4</v>
-      </c>
-      <c r="I21" s="7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>1</v>
-      </c>
-      <c r="B22" s="7">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4080</v>
-      </c>
-      <c r="D22" s="7">
-        <v>20</v>
-      </c>
-      <c r="E22" s="7">
-        <v>5</v>
-      </c>
-      <c r="F22" s="7">
-        <v>4</v>
-      </c>
-      <c r="G22" s="7">
-        <v>3</v>
-      </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4542</v>
-      </c>
-      <c r="D23" s="7">
-        <v>21</v>
-      </c>
-      <c r="E23" s="7">
-        <v>5</v>
-      </c>
-      <c r="F23" s="7">
-        <v>4</v>
-      </c>
-      <c r="G23" s="7">
-        <v>3</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7">
-        <v>23</v>
-      </c>
-      <c r="C24" s="7">
-        <v>5048</v>
-      </c>
-      <c r="D24" s="7">
-        <v>22</v>
-      </c>
-      <c r="E24" s="7">
-        <v>5</v>
-      </c>
-      <c r="F24" s="7">
-        <v>4</v>
-      </c>
-      <c r="G24" s="7">
-        <v>3</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7">
-        <v>24</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5600</v>
-      </c>
-      <c r="D25" s="7">
-        <v>23</v>
-      </c>
-      <c r="E25" s="7">
-        <v>5</v>
-      </c>
-      <c r="F25" s="7">
-        <v>4</v>
-      </c>
-      <c r="G25" s="7">
-        <v>3</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>1</v>
-      </c>
-      <c r="B26" s="7">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7">
-        <v>6200</v>
-      </c>
-      <c r="D26" s="7">
-        <v>24</v>
-      </c>
-      <c r="E26" s="7">
-        <v>5</v>
-      </c>
-      <c r="F26" s="7">
-        <v>4</v>
-      </c>
-      <c r="G26" s="7">
-        <v>3</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7">
-        <v>6850</v>
-      </c>
-      <c r="D27" s="7">
-        <v>25</v>
-      </c>
-      <c r="E27" s="7">
-        <v>5</v>
-      </c>
-      <c r="F27" s="7">
-        <v>4</v>
-      </c>
-      <c r="G27" s="7">
-        <v>3</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5</v>
-      </c>
-      <c r="I27" s="7">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>1</v>
-      </c>
-      <c r="B28" s="7">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7">
-        <v>7552</v>
-      </c>
-      <c r="D28" s="7">
-        <v>26</v>
-      </c>
-      <c r="E28" s="7">
-        <v>5</v>
-      </c>
-      <c r="F28" s="7">
-        <v>4</v>
-      </c>
-      <c r="G28" s="7">
-        <v>3</v>
-      </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>1</v>
-      </c>
-      <c r="B29" s="7">
-        <v>28</v>
-      </c>
-      <c r="C29" s="7">
-        <v>8308</v>
-      </c>
-      <c r="D29" s="7">
-        <v>27</v>
-      </c>
-      <c r="E29" s="7">
-        <v>5</v>
-      </c>
-      <c r="F29" s="7">
-        <v>4</v>
-      </c>
-      <c r="G29" s="7">
-        <v>3</v>
-      </c>
-      <c r="H29" s="7">
-        <v>5</v>
-      </c>
-      <c r="I29" s="7">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>1</v>
-      </c>
-      <c r="B30" s="7">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7">
-        <v>9120</v>
-      </c>
-      <c r="D30" s="7">
-        <v>28</v>
-      </c>
-      <c r="E30" s="7">
-        <v>5</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4</v>
-      </c>
-      <c r="G30" s="7">
-        <v>3</v>
-      </c>
-      <c r="H30" s="7">
-        <v>5</v>
-      </c>
-      <c r="I30" s="7">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>1</v>
-      </c>
-      <c r="B31" s="7">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>9990</v>
-      </c>
-      <c r="D31" s="7">
-        <v>29</v>
-      </c>
-      <c r="E31" s="7">
-        <v>5</v>
-      </c>
-      <c r="F31" s="7">
-        <v>4</v>
-      </c>
-      <c r="G31" s="7">
-        <v>3</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>1</v>
-      </c>
-      <c r="B32" s="7">
-        <v>31</v>
-      </c>
-      <c r="C32" s="7">
-        <v>10920</v>
-      </c>
-      <c r="D32" s="7">
-        <v>30</v>
-      </c>
-      <c r="E32" s="7">
-        <v>6</v>
-      </c>
-      <c r="F32" s="7">
-        <v>5</v>
-      </c>
-      <c r="G32" s="7">
-        <v>4</v>
-      </c>
-      <c r="H32" s="7">
-        <v>6</v>
-      </c>
-      <c r="I32" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>1</v>
-      </c>
-      <c r="B33" s="7">
-        <v>32</v>
-      </c>
-      <c r="C33" s="7">
-        <v>11912</v>
-      </c>
-      <c r="D33" s="7">
-        <v>31</v>
-      </c>
-      <c r="E33" s="7">
-        <v>6</v>
-      </c>
-      <c r="F33" s="7">
-        <v>5</v>
-      </c>
-      <c r="G33" s="7">
-        <v>4</v>
-      </c>
-      <c r="H33" s="7">
-        <v>6</v>
-      </c>
-      <c r="I33" s="7">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>1</v>
-      </c>
-      <c r="B34" s="7">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7">
-        <v>12968</v>
-      </c>
-      <c r="D34" s="7">
-        <v>32</v>
-      </c>
-      <c r="E34" s="7">
-        <v>6</v>
-      </c>
-      <c r="F34" s="7">
-        <v>5</v>
-      </c>
-      <c r="G34" s="7">
-        <v>4</v>
-      </c>
-      <c r="H34" s="7">
-        <v>6</v>
-      </c>
-      <c r="I34" s="7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>1</v>
-      </c>
-      <c r="B35" s="7">
-        <v>34</v>
-      </c>
-      <c r="C35" s="7">
-        <v>14090</v>
-      </c>
-      <c r="D35" s="7">
-        <v>33</v>
-      </c>
-      <c r="E35" s="7">
-        <v>6</v>
-      </c>
-      <c r="F35" s="7">
-        <v>5</v>
-      </c>
-      <c r="G35" s="7">
-        <v>4</v>
-      </c>
-      <c r="H35" s="7">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>1</v>
-      </c>
-      <c r="B36" s="7">
-        <v>35</v>
-      </c>
-      <c r="C36" s="7">
-        <v>15280</v>
-      </c>
-      <c r="D36" s="7">
-        <v>34</v>
-      </c>
-      <c r="E36" s="7">
-        <v>6</v>
-      </c>
-      <c r="F36" s="7">
-        <v>5</v>
-      </c>
-      <c r="G36" s="7">
-        <v>4</v>
-      </c>
-      <c r="H36" s="7">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>1</v>
-      </c>
-      <c r="B37" s="7">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7">
-        <v>16540</v>
-      </c>
-      <c r="D37" s="7">
-        <v>35</v>
-      </c>
-      <c r="E37" s="7">
-        <v>6</v>
-      </c>
-      <c r="F37" s="7">
-        <v>5</v>
-      </c>
-      <c r="G37" s="7">
-        <v>4</v>
-      </c>
-      <c r="H37" s="7">
-        <v>6</v>
-      </c>
-      <c r="I37" s="7">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>1</v>
-      </c>
-      <c r="B38" s="7">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7">
-        <v>17872</v>
-      </c>
-      <c r="D38" s="7">
-        <v>36</v>
-      </c>
-      <c r="E38" s="7">
-        <v>6</v>
-      </c>
-      <c r="F38" s="7">
-        <v>5</v>
-      </c>
-      <c r="G38" s="7">
-        <v>4</v>
-      </c>
-      <c r="H38" s="7">
-        <v>6</v>
-      </c>
-      <c r="I38" s="7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>1</v>
-      </c>
-      <c r="B39" s="7">
-        <v>38</v>
-      </c>
-      <c r="C39" s="7">
-        <v>19278</v>
-      </c>
-      <c r="D39" s="7">
-        <v>37</v>
-      </c>
-      <c r="E39" s="7">
-        <v>6</v>
-      </c>
-      <c r="F39" s="7">
-        <v>5</v>
-      </c>
-      <c r="G39" s="7">
-        <v>4</v>
-      </c>
-      <c r="H39" s="7">
-        <v>6</v>
-      </c>
-      <c r="I39" s="7">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>1</v>
-      </c>
-      <c r="B40" s="7">
-        <v>39</v>
-      </c>
-      <c r="C40" s="7">
-        <v>20760</v>
-      </c>
-      <c r="D40" s="7">
-        <v>38</v>
-      </c>
-      <c r="E40" s="7">
-        <v>6</v>
-      </c>
-      <c r="F40" s="7">
-        <v>5</v>
-      </c>
-      <c r="G40" s="7">
-        <v>4</v>
-      </c>
-      <c r="H40" s="7">
-        <v>6</v>
-      </c>
-      <c r="I40" s="7">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>1</v>
-      </c>
-      <c r="B41" s="7">
-        <v>40</v>
-      </c>
-      <c r="C41" s="7">
-        <v>22320</v>
-      </c>
-      <c r="D41" s="7">
-        <v>39</v>
-      </c>
-      <c r="E41" s="7">
-        <v>6</v>
-      </c>
-      <c r="F41" s="7">
-        <v>5</v>
-      </c>
-      <c r="G41" s="7">
-        <v>4</v>
-      </c>
-      <c r="H41" s="7">
-        <v>6</v>
-      </c>
-      <c r="I41" s="7">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>1</v>
-      </c>
-      <c r="B42" s="7">
-        <v>41</v>
-      </c>
-      <c r="C42" s="7">
-        <v>23960</v>
-      </c>
-      <c r="D42" s="7">
-        <v>40</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="C100" s="7">
+        <v>50</v>
+      </c>
+      <c r="D100" s="7">
+        <v>42650</v>
+      </c>
+      <c r="F100" s="10">
         <v>7</v>
       </c>
-      <c r="F42" s="7">
-        <v>6</v>
-      </c>
-      <c r="G42" s="7">
-        <v>5</v>
-      </c>
-      <c r="H42" s="7">
-        <v>7</v>
-      </c>
-      <c r="I42" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>1</v>
-      </c>
-      <c r="B43" s="7">
-        <v>42</v>
-      </c>
-      <c r="C43" s="7">
-        <v>25682</v>
-      </c>
-      <c r="D43" s="7">
-        <v>41</v>
-      </c>
-      <c r="E43" s="7">
-        <v>7</v>
-      </c>
-      <c r="F43" s="7">
-        <v>6</v>
-      </c>
-      <c r="G43" s="7">
-        <v>5</v>
-      </c>
-      <c r="H43" s="7">
-        <v>7</v>
-      </c>
-      <c r="I43" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>1</v>
-      </c>
-      <c r="B44" s="7">
-        <v>43</v>
-      </c>
-      <c r="C44" s="7">
-        <v>27488</v>
-      </c>
-      <c r="D44" s="7">
-        <v>42</v>
-      </c>
-      <c r="E44" s="7">
-        <v>7</v>
-      </c>
-      <c r="F44" s="7">
-        <v>6</v>
-      </c>
-      <c r="G44" s="7">
-        <v>5</v>
-      </c>
-      <c r="H44" s="7">
-        <v>7</v>
-      </c>
-      <c r="I44" s="7">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>1</v>
-      </c>
-      <c r="B45" s="7">
-        <v>44</v>
-      </c>
-      <c r="C45" s="7">
-        <v>29380</v>
-      </c>
-      <c r="D45" s="7">
-        <v>43</v>
-      </c>
-      <c r="E45" s="7">
-        <v>7</v>
-      </c>
-      <c r="F45" s="7">
-        <v>6</v>
-      </c>
-      <c r="G45" s="7">
-        <v>5</v>
-      </c>
-      <c r="H45" s="7">
-        <v>7</v>
-      </c>
-      <c r="I45" s="7">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>1</v>
-      </c>
-      <c r="B46" s="7">
-        <v>45</v>
-      </c>
-      <c r="C46" s="7">
-        <v>31360</v>
-      </c>
-      <c r="D46" s="7">
-        <v>44</v>
-      </c>
-      <c r="E46" s="7">
-        <v>7</v>
-      </c>
-      <c r="F46" s="7">
-        <v>6</v>
-      </c>
-      <c r="G46" s="7">
-        <v>5</v>
-      </c>
-      <c r="H46" s="7">
-        <v>7</v>
-      </c>
-      <c r="I46" s="7">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>1</v>
-      </c>
-      <c r="B47" s="7">
-        <v>46</v>
-      </c>
-      <c r="C47" s="7">
-        <v>33430</v>
-      </c>
-      <c r="D47" s="7">
-        <v>45</v>
-      </c>
-      <c r="E47" s="7">
-        <v>7</v>
-      </c>
-      <c r="F47" s="7">
-        <v>6</v>
-      </c>
-      <c r="G47" s="7">
-        <v>5</v>
-      </c>
-      <c r="H47" s="7">
-        <v>7</v>
-      </c>
-      <c r="I47" s="7">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>1</v>
-      </c>
-      <c r="B48" s="7">
-        <v>47</v>
-      </c>
-      <c r="C48" s="7">
-        <v>35592</v>
-      </c>
-      <c r="D48" s="7">
-        <v>46</v>
-      </c>
-      <c r="E48" s="7">
-        <v>7</v>
-      </c>
-      <c r="F48" s="7">
-        <v>6</v>
-      </c>
-      <c r="G48" s="7">
-        <v>5</v>
-      </c>
-      <c r="H48" s="7">
-        <v>7</v>
-      </c>
-      <c r="I48" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>1</v>
-      </c>
-      <c r="B49" s="7">
-        <v>48</v>
-      </c>
-      <c r="C49" s="7">
-        <v>37848</v>
-      </c>
-      <c r="D49" s="7">
-        <v>47</v>
-      </c>
-      <c r="E49" s="7">
-        <v>7</v>
-      </c>
-      <c r="F49" s="7">
-        <v>6</v>
-      </c>
-      <c r="G49" s="7">
-        <v>5</v>
-      </c>
-      <c r="H49" s="7">
-        <v>7</v>
-      </c>
-      <c r="I49" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>1</v>
-      </c>
-      <c r="B50" s="7">
-        <v>49</v>
-      </c>
-      <c r="C50" s="7">
-        <v>40200</v>
-      </c>
-      <c r="D50" s="7">
-        <v>48</v>
-      </c>
-      <c r="E50" s="7">
-        <v>7</v>
-      </c>
-      <c r="F50" s="7">
-        <v>6</v>
-      </c>
-      <c r="G50" s="7">
-        <v>5</v>
-      </c>
-      <c r="H50" s="7">
-        <v>7</v>
-      </c>
-      <c r="I50" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>1</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="I100" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
         <v>50</v>
       </c>
-      <c r="C51" s="7">
-        <v>42650</v>
-      </c>
-      <c r="D51" s="7">
-        <v>49</v>
-      </c>
-      <c r="E51" s="7">
-        <v>7</v>
-      </c>
-      <c r="F51" s="7">
-        <v>6</v>
-      </c>
-      <c r="G51" s="7">
-        <v>5</v>
-      </c>
-      <c r="H51" s="7">
-        <v>7</v>
-      </c>
-      <c r="I51" s="7">
-        <v>245</v>
-      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5596,7 +7236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/plan/2.테이블/통합 테이블.xlsx
+++ b/plan/2.테이블/통합 테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="0" windowWidth="11540" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="15600" yWindow="0" windowWidth="10000" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="7" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <sheet name="npcinfo" sheetId="5" r:id="rId11"/>
     <sheet name="npcscript" sheetId="6" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -729,7 +726,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +742,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +784,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,6 +808,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -864,7 +870,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -929,7 +934,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -961,160 +965,157 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:val>
-            <c:numRef>
-              <c:f>[1]stat!$C$3:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>1002.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1008.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1020.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1040.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1070.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1112.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1168.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1240.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1330.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1440.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1572.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1728.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1910.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2120.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2360.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2632.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2938.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3280.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3660.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4080.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4542.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5048.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5600.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6200.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6850.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7552.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8308.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9120.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9990.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10920.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11912.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12968.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14090.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15280.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16540.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17872.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>19278.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20760.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>22320.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>23960.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25682.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27488.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>29380.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>31360.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>33430.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>35592.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>37848.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40200.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42650.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="49"/>
+              <c:pt idx="0">
+                <c:v>1002.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1008.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1020.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1040.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1070.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1112.0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1168.0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>1240.0</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>1330.0</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>1440.0</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>1572.0</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>1728.0</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>1910.0</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2120.0</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2360.0</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2632.0</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2938.0</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>3280.0</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>3660.0</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>4080.0</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>4542.0</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>5048.0</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>5600.0</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>6200.0</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>6850.0</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>7552.0</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>8308.0</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>9120.0</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>9990.0</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>10920.0</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>11912.0</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>12968.0</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>14090.0</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>15280.0</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>16540.0</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>17872.0</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>19278.0</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>20760.0</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>22320.0</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>23960.0</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>25682.0</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>27488.0</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>29380.0</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>31360.0</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>33430.0</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>35592.0</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>37848.0</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>40200.0</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>42650.0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -1127,11 +1128,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2103654480"/>
-        <c:axId val="2144999648"/>
+        <c:axId val="-2131548640"/>
+        <c:axId val="-2133735504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103654480"/>
+        <c:axId val="-2131548640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1174,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144999648"/>
+        <c:crossAx val="-2133735504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1181,7 +1182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144999648"/>
+        <c:axId val="-2133735504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1233,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103654480"/>
+        <c:crossAx val="-2131548640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1393,160 +1394,157 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:val>
-            <c:numRef>
-              <c:f>[1]stat!$I$3:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>160.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>175.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>185.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>190.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>205.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>210.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>215.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>230.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>235.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>245.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="49"/>
+              <c:pt idx="0">
+                <c:v>5.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>15.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>20.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>25.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>30.0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>35.0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>40.0</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>45.0</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>50.0</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>55.0</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>60.0</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>65.0</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>70.0</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>75.0</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>80.0</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>85.0</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>90.0</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>95.0</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>100.0</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>105.0</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>110.0</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>115.0</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>120.0</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>125.0</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>130.0</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>135.0</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>140.0</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>145.0</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>150.0</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>155.0</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>160.0</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>165.0</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>170.0</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>175.0</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>180.0</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>185.0</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>190.0</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>195.0</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>200.0</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>205.0</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>210.0</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>215.0</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>220.0</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>225.0</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>230.0</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>235.0</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>240.0</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>245.0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -1559,11 +1557,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2134576416"/>
-        <c:axId val="-2138809024"/>
+        <c:axId val="-2130444592"/>
+        <c:axId val="-2130447648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2134576416"/>
+        <c:axId val="-2130444592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,7 +1603,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138809024"/>
+        <c:crossAx val="-2130447648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1613,7 +1611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138809024"/>
+        <c:axId val="-2130447648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1662,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134576416"/>
+        <c:crossAx val="-2130444592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2894,414 +2892,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="stat"/>
-      <sheetName val="그래프"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1002</v>
-          </cell>
-          <cell r="I3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1008</v>
-          </cell>
-          <cell r="I4">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1020</v>
-          </cell>
-          <cell r="I5">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>1040</v>
-          </cell>
-          <cell r="I6">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1070</v>
-          </cell>
-          <cell r="I7">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>1112</v>
-          </cell>
-          <cell r="I8">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>1168</v>
-          </cell>
-          <cell r="I9">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>1240</v>
-          </cell>
-          <cell r="I10">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1330</v>
-          </cell>
-          <cell r="I11">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>1440</v>
-          </cell>
-          <cell r="I12">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>1572</v>
-          </cell>
-          <cell r="I13">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>1728</v>
-          </cell>
-          <cell r="I14">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>1910</v>
-          </cell>
-          <cell r="I15">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>2120</v>
-          </cell>
-          <cell r="I16">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>2360</v>
-          </cell>
-          <cell r="I17">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>2632</v>
-          </cell>
-          <cell r="I18">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>2938</v>
-          </cell>
-          <cell r="I19">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>3280</v>
-          </cell>
-          <cell r="I20">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>3660</v>
-          </cell>
-          <cell r="I21">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>4080</v>
-          </cell>
-          <cell r="I22">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>4542</v>
-          </cell>
-          <cell r="I23">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>5048</v>
-          </cell>
-          <cell r="I24">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>5600</v>
-          </cell>
-          <cell r="I25">
-            <v>115</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>6200</v>
-          </cell>
-          <cell r="I26">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>6850</v>
-          </cell>
-          <cell r="I27">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>7552</v>
-          </cell>
-          <cell r="I28">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>8308</v>
-          </cell>
-          <cell r="I29">
-            <v>135</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>9120</v>
-          </cell>
-          <cell r="I30">
-            <v>140</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>9990</v>
-          </cell>
-          <cell r="I31">
-            <v>145</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>10920</v>
-          </cell>
-          <cell r="I32">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>11912</v>
-          </cell>
-          <cell r="I33">
-            <v>155</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>12968</v>
-          </cell>
-          <cell r="I34">
-            <v>160</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>14090</v>
-          </cell>
-          <cell r="I35">
-            <v>165</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>15280</v>
-          </cell>
-          <cell r="I36">
-            <v>170</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>16540</v>
-          </cell>
-          <cell r="I37">
-            <v>175</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>17872</v>
-          </cell>
-          <cell r="I38">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>19278</v>
-          </cell>
-          <cell r="I39">
-            <v>185</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>20760</v>
-          </cell>
-          <cell r="I40">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>22320</v>
-          </cell>
-          <cell r="I41">
-            <v>195</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>23960</v>
-          </cell>
-          <cell r="I42">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>25682</v>
-          </cell>
-          <cell r="I43">
-            <v>205</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>27488</v>
-          </cell>
-          <cell r="I44">
-            <v>210</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>29380</v>
-          </cell>
-          <cell r="I45">
-            <v>215</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>31360</v>
-          </cell>
-          <cell r="I46">
-            <v>220</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>33430</v>
-          </cell>
-          <cell r="I47">
-            <v>225</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>35592</v>
-          </cell>
-          <cell r="I48">
-            <v>230</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>37848</v>
-          </cell>
-          <cell r="I49">
-            <v>235</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>40200</v>
-          </cell>
-          <cell r="I50">
-            <v>240</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>42650</v>
-          </cell>
-          <cell r="I51">
-            <v>245</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -4128,10 +3718,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q113"/>
+  <dimension ref="A2:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4457,34 +4047,34 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="11">
         <v>1440</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="11">
         <v>15</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="11">
         <v>3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="11">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="11">
         <v>4</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="11">
         <v>10</v>
       </c>
     </row>
@@ -5816,11 +5406,19 @@
       <c r="D52" s="7">
         <v>1002</v>
       </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
       <c r="F52" s="10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
       </c>
       <c r="I52" s="10">
-        <f>G52/2</f>
         <v>0</v>
       </c>
       <c r="J52" s="7">
@@ -5845,11 +5443,19 @@
       <c r="D53" s="7">
         <v>1008</v>
       </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
       <c r="F53" s="10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" ref="I53:I100" si="0">G53/2</f>
         <v>0</v>
       </c>
       <c r="J53" s="7">
@@ -5874,11 +5480,19 @@
       <c r="D54" s="7">
         <v>1020</v>
       </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
       <c r="F54" s="10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J54" s="7">
@@ -5903,11 +5517,19 @@
       <c r="D55" s="7">
         <v>1040</v>
       </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
       <c r="F55" s="10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J55" s="7">
@@ -5932,11 +5554,19 @@
       <c r="D56" s="7">
         <v>1070</v>
       </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
       <c r="F56" s="10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J56" s="7">
@@ -5961,11 +5591,19 @@
       <c r="D57" s="7">
         <v>1112</v>
       </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
       <c r="F57" s="10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J57" s="7">
@@ -5990,11 +5628,19 @@
       <c r="D58" s="7">
         <v>1168</v>
       </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
       <c r="F58" s="10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J58" s="7">
@@ -6019,11 +5665,19 @@
       <c r="D59" s="7">
         <v>1240</v>
       </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
       <c r="F59" s="10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J59" s="7">
@@ -6048,11 +5702,19 @@
       <c r="D60" s="7">
         <v>1330</v>
       </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
       <c r="F60" s="10">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J60" s="7">
@@ -6077,11 +5739,19 @@
       <c r="D61" s="7">
         <v>1440</v>
       </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
       <c r="F61" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J61" s="7">
@@ -6106,11 +5776,19 @@
       <c r="D62" s="7">
         <v>1572</v>
       </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
       <c r="F62" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J62" s="7">
@@ -6135,11 +5813,19 @@
       <c r="D63" s="7">
         <v>1728</v>
       </c>
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
       <c r="F63" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J63" s="7">
@@ -6164,11 +5850,19 @@
       <c r="D64" s="7">
         <v>1910</v>
       </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
       <c r="F64" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J64" s="7">
@@ -6193,11 +5887,19 @@
       <c r="D65" s="7">
         <v>2120</v>
       </c>
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
       <c r="F65" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J65" s="7">
@@ -6222,11 +5924,19 @@
       <c r="D66" s="7">
         <v>2360</v>
       </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
       <c r="F66" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J66" s="7">
@@ -6251,11 +5961,19 @@
       <c r="D67" s="7">
         <v>2632</v>
       </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
       <c r="F67" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J67" s="7">
@@ -6280,11 +5998,19 @@
       <c r="D68" s="7">
         <v>2938</v>
       </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
       <c r="F68" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J68" s="7">
@@ -6309,11 +6035,19 @@
       <c r="D69" s="7">
         <v>3280</v>
       </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
       <c r="F69" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J69" s="7">
@@ -6338,11 +6072,19 @@
       <c r="D70" s="7">
         <v>3660</v>
       </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
       <c r="F70" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J70" s="7">
@@ -6367,11 +6109,19 @@
       <c r="D71" s="7">
         <v>4080</v>
       </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
       <c r="F71" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J71" s="7">
@@ -6396,11 +6146,19 @@
       <c r="D72" s="7">
         <v>4542</v>
       </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
       <c r="F72" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J72" s="7">
@@ -6425,11 +6183,19 @@
       <c r="D73" s="7">
         <v>5048</v>
       </c>
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
       <c r="F73" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J73" s="7">
@@ -6454,11 +6220,19 @@
       <c r="D74" s="7">
         <v>5600</v>
       </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
       <c r="F74" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J74" s="7">
@@ -6483,11 +6257,19 @@
       <c r="D75" s="7">
         <v>6200</v>
       </c>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
       <c r="F75" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J75" s="7">
@@ -6512,11 +6294,19 @@
       <c r="D76" s="7">
         <v>6850</v>
       </c>
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
       <c r="F76" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J76" s="7">
@@ -6541,11 +6331,19 @@
       <c r="D77" s="7">
         <v>7552</v>
       </c>
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
       <c r="F77" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J77" s="7">
@@ -6570,11 +6368,19 @@
       <c r="D78" s="7">
         <v>8308</v>
       </c>
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
       <c r="F78" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J78" s="7">
@@ -6599,11 +6405,19 @@
       <c r="D79" s="7">
         <v>9120</v>
       </c>
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
       <c r="F79" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J79" s="7">
@@ -6628,11 +6442,19 @@
       <c r="D80" s="7">
         <v>9990</v>
       </c>
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
       <c r="F80" s="10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J80" s="7">
@@ -6657,11 +6479,19 @@
       <c r="D81" s="7">
         <v>10920</v>
       </c>
+      <c r="E81" s="7">
+        <v>0</v>
+      </c>
       <c r="F81" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J81" s="7">
@@ -6686,11 +6516,19 @@
       <c r="D82" s="7">
         <v>11912</v>
       </c>
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
       <c r="F82" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J82" s="7">
@@ -6715,11 +6553,19 @@
       <c r="D83" s="7">
         <v>12968</v>
       </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
       <c r="F83" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J83" s="7">
@@ -6744,11 +6590,19 @@
       <c r="D84" s="7">
         <v>14090</v>
       </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
       <c r="F84" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
       </c>
       <c r="I84" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J84" s="7">
@@ -6773,11 +6627,19 @@
       <c r="D85" s="7">
         <v>15280</v>
       </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
       <c r="F85" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
       </c>
       <c r="I85" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J85" s="7">
@@ -6802,11 +6664,19 @@
       <c r="D86" s="7">
         <v>16540</v>
       </c>
+      <c r="E86" s="7">
+        <v>0</v>
+      </c>
       <c r="F86" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
       </c>
       <c r="I86" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J86" s="7">
@@ -6831,11 +6701,19 @@
       <c r="D87" s="7">
         <v>17872</v>
       </c>
+      <c r="E87" s="7">
+        <v>0</v>
+      </c>
       <c r="F87" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
       </c>
       <c r="I87" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J87" s="7">
@@ -6860,11 +6738,19 @@
       <c r="D88" s="7">
         <v>19278</v>
       </c>
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
       <c r="F88" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
       </c>
       <c r="I88" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J88" s="7">
@@ -6884,11 +6770,19 @@
       <c r="D89" s="7">
         <v>20760</v>
       </c>
+      <c r="E89" s="7">
+        <v>0</v>
+      </c>
       <c r="F89" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
       </c>
       <c r="I89" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J89" s="7">
@@ -6908,11 +6802,19 @@
       <c r="D90" s="7">
         <v>22320</v>
       </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
       <c r="F90" s="10">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
       </c>
       <c r="I90" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J90" s="7">
@@ -6932,11 +6834,19 @@
       <c r="D91" s="7">
         <v>23960</v>
       </c>
+      <c r="E91" s="7">
+        <v>0</v>
+      </c>
       <c r="F91" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
       </c>
       <c r="I91" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J91" s="7">
@@ -6956,11 +6866,19 @@
       <c r="D92" s="7">
         <v>25682</v>
       </c>
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
       <c r="F92" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
       </c>
       <c r="I92" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J92" s="7">
@@ -6980,11 +6898,19 @@
       <c r="D93" s="7">
         <v>27488</v>
       </c>
+      <c r="E93" s="7">
+        <v>0</v>
+      </c>
       <c r="F93" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J93" s="7">
@@ -7004,11 +6930,19 @@
       <c r="D94" s="7">
         <v>29380</v>
       </c>
+      <c r="E94" s="7">
+        <v>0</v>
+      </c>
       <c r="F94" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J94" s="7">
@@ -7028,11 +6962,19 @@
       <c r="D95" s="7">
         <v>31360</v>
       </c>
+      <c r="E95" s="7">
+        <v>0</v>
+      </c>
       <c r="F95" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0</v>
       </c>
       <c r="I95" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J95" s="7">
@@ -7052,11 +6994,19 @@
       <c r="D96" s="7">
         <v>33430</v>
       </c>
+      <c r="E96" s="7">
+        <v>0</v>
+      </c>
       <c r="F96" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
+        <v>0</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0</v>
       </c>
       <c r="I96" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J96" s="7">
@@ -7076,11 +7026,19 @@
       <c r="D97" s="7">
         <v>35592</v>
       </c>
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
       <c r="F97" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
+        <v>0</v>
+      </c>
+      <c r="H97" s="7">
+        <v>0</v>
       </c>
       <c r="I97" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J97" s="7">
@@ -7100,11 +7058,19 @@
       <c r="D98" s="7">
         <v>37848</v>
       </c>
+      <c r="E98" s="7">
+        <v>0</v>
+      </c>
       <c r="F98" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
       </c>
       <c r="I98" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J98" s="7">
@@ -7124,11 +7090,19 @@
       <c r="D99" s="7">
         <v>40200</v>
       </c>
+      <c r="E99" s="7">
+        <v>0</v>
+      </c>
       <c r="F99" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
+      <c r="H99" s="7">
+        <v>0</v>
       </c>
       <c r="I99" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J99" s="7">
@@ -7148,46 +7122,24 @@
       <c r="D100" s="7">
         <v>42650</v>
       </c>
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
       <c r="F100" s="10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <v>0</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J100" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/plan/2.테이블/통합 테이블.xlsx
+++ b/plan/2.테이블/통합 테이블.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="0" windowWidth="10000" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="15080" yWindow="0" windowWidth="10520" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="7" r:id="rId1"/>
@@ -38,20 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="169">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -60,95 +52,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>subclass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quality</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>valueType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overLap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>manNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>critical</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>criDam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>def</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>str</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>agi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>health</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>randomDrop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>confirmDrop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconImagePackage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -663,6 +579,90 @@
   <si>
     <t>class</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>outDescription</t>
+  </si>
+  <si>
+    <t>inDescription</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>coolTime</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>valueType</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>overLap</t>
+  </si>
+  <si>
+    <t>manNum</t>
+  </si>
+  <si>
+    <t>attSpeed</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>criDam</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>agi</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>randomDrop</t>
+  </si>
+  <si>
+    <t>confirmDrop</t>
+  </si>
+  <si>
+    <t>iconImagePackage</t>
+  </si>
+  <si>
+    <t>iconName</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -775,6 +775,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -784,7 +812,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -812,6 +840,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1128,11 +1162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2131548640"/>
-        <c:axId val="-2133735504"/>
+        <c:axId val="-1516954016"/>
+        <c:axId val="-1516951696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131548640"/>
+        <c:axId val="-1516954016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1208,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133735504"/>
+        <c:crossAx val="-1516951696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,7 +1216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133735504"/>
+        <c:axId val="-1516951696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1267,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131548640"/>
+        <c:crossAx val="-1516954016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1297,7 +1331,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1362,7 +1395,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1557,11 +1589,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2130444592"/>
-        <c:axId val="-2130447648"/>
+        <c:axId val="-1511301264"/>
+        <c:axId val="-1553118672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2130444592"/>
+        <c:axId val="-1511301264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1635,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130447648"/>
+        <c:crossAx val="-1553118672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1611,7 +1643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130447648"/>
+        <c:axId val="-1553118672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1694,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130444592"/>
+        <c:crossAx val="-1511301264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3166,97 +3198,97 @@
   <sheetData>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="AB2" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -3376,82 +3408,82 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3476,37 +3508,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3531,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3556,85 +3588,85 @@
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3659,55 +3691,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +3752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="67" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScale="67" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
@@ -3731,31 +3763,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7160,22 +7192,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -7196,13 +7228,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -7214,95 +7246,102 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="시트4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:AA2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>27</v>
+    <row r="1" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -7324,67 +7363,67 @@
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7409,79 +7448,79 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/plan/2.테이블/통합 테이블.xlsx
+++ b/plan/2.테이블/통합 테이블.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="0" windowWidth="10520" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="monsterskill" sheetId="4" r:id="rId10"/>
     <sheet name="npcinfo" sheetId="5" r:id="rId11"/>
     <sheet name="npcscript" sheetId="6" r:id="rId12"/>
+    <sheet name="world" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="173">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -663,6 +664,22 @@
   </si>
   <si>
     <t>iconName</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1162,11 +1179,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1516954016"/>
-        <c:axId val="-1516951696"/>
+        <c:axId val="-1240773904"/>
+        <c:axId val="-1240771584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1516954016"/>
+        <c:axId val="-1240773904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,7 +1225,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516951696"/>
+        <c:crossAx val="-1240771584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1216,7 +1233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1516951696"/>
+        <c:axId val="-1240771584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1284,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516954016"/>
+        <c:crossAx val="-1240773904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,11 +1606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511301264"/>
-        <c:axId val="-1553118672"/>
+        <c:axId val="-1234043680"/>
+        <c:axId val="-1234041360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511301264"/>
+        <c:axId val="-1234043680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1652,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1553118672"/>
+        <c:crossAx val="-1234041360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1643,7 +1660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1553118672"/>
+        <c:axId val="-1234041360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1711,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511301264"/>
+        <c:crossAx val="-1234043680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3498,7 +3515,7 @@
   <dimension ref="A2:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3553,7 +3570,7 @@
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3567,6 +3584,39 @@
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7248,8 +7298,8 @@
   <sheetPr codeName="시트4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/plan/2.테이블/통합 테이블.xlsx
+++ b/plan/2.테이블/통합 테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="177">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -679,6 +679,21 @@
   </si>
   <si>
     <t>worldcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcPortrait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>firstName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +844,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -863,6 +878,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1179,11 +1197,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1240773904"/>
-        <c:axId val="-1240771584"/>
+        <c:axId val="49786960"/>
+        <c:axId val="49789280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1240773904"/>
+        <c:axId val="49786960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,7 +1243,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1240771584"/>
+        <c:crossAx val="49789280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1233,7 +1251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1240771584"/>
+        <c:axId val="49789280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1302,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1240773904"/>
+        <c:crossAx val="49786960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1606,11 +1624,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1234043680"/>
-        <c:axId val="-1234041360"/>
+        <c:axId val="8291360"/>
+        <c:axId val="8293680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1234043680"/>
+        <c:axId val="8291360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1670,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1234041360"/>
+        <c:crossAx val="8293680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1234041360"/>
+        <c:axId val="8293680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1729,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1234043680"/>
+        <c:crossAx val="8291360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3567,23 +3585,32 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="시트9" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:C2"/>
+  <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.7109375" style="14"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
+      <c r="E2" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3596,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
